--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 13.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 13.xlsx_with_dialog_acts.xlsx
@@ -507,12 +507,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -615,12 +615,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2704,12 +2704,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
